--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H2">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I2">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J2">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0305975</v>
+        <v>0.690242</v>
       </c>
       <c r="N2">
-        <v>2.061195</v>
+        <v>1.380484</v>
       </c>
       <c r="O2">
-        <v>0.09953130389913813</v>
+        <v>0.07603312339759918</v>
       </c>
       <c r="P2">
-        <v>0.0750890382124423</v>
+        <v>0.05971740901392503</v>
       </c>
       <c r="Q2">
-        <v>39.56384137313249</v>
+        <v>11.135454343923</v>
       </c>
       <c r="R2">
-        <v>158.25536549253</v>
+        <v>44.54181737569201</v>
       </c>
       <c r="S2">
-        <v>0.04431427710116637</v>
+        <v>0.02700878339941796</v>
       </c>
       <c r="T2">
-        <v>0.02816824245129102</v>
+        <v>0.01860191141354492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H3">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I3">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J3">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.575656</v>
       </c>
       <c r="O3">
-        <v>0.147299991145562</v>
+        <v>0.1680093924898635</v>
       </c>
       <c r="P3">
-        <v>0.1666904917928634</v>
+        <v>0.1979351595954898</v>
       </c>
       <c r="Q3">
-        <v>58.551965619304</v>
+        <v>24.605866967188</v>
       </c>
       <c r="R3">
-        <v>351.311793715824</v>
+        <v>147.635201803128</v>
       </c>
       <c r="S3">
-        <v>0.06558230796653221</v>
+        <v>0.0596809533536775</v>
       </c>
       <c r="T3">
-        <v>0.06253080741109138</v>
+        <v>0.06165659838930065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H4">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I4">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J4">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.729477333333334</v>
+        <v>1.488848666666667</v>
       </c>
       <c r="N4">
-        <v>5.188432000000001</v>
+        <v>4.466546</v>
       </c>
       <c r="O4">
-        <v>0.1670265395080728</v>
+        <v>0.1640030806485518</v>
       </c>
       <c r="P4">
-        <v>0.189013833582295</v>
+        <v>0.1932152450600737</v>
       </c>
       <c r="Q4">
-        <v>66.393297940688</v>
+        <v>24.019121341033</v>
       </c>
       <c r="R4">
-        <v>398.359787644128</v>
+        <v>144.114728046198</v>
       </c>
       <c r="S4">
-        <v>0.07436515010905773</v>
+        <v>0.05825781559585223</v>
       </c>
       <c r="T4">
-        <v>0.07090498983261496</v>
+        <v>0.06018634987187351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H5">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I5">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J5">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.582909</v>
+        <v>3.427339</v>
       </c>
       <c r="N5">
-        <v>5.165818</v>
+        <v>6.854678</v>
       </c>
       <c r="O5">
-        <v>0.2494478209221534</v>
+        <v>0.3775361237253082</v>
       </c>
       <c r="P5">
-        <v>0.1881900088058249</v>
+        <v>0.296521806688635</v>
       </c>
       <c r="Q5">
-        <v>99.15587992134299</v>
+        <v>55.2921684795285</v>
       </c>
       <c r="R5">
-        <v>396.6235196853719</v>
+        <v>221.168673918114</v>
       </c>
       <c r="S5">
-        <v>0.1110615396923596</v>
+        <v>0.1341098581184248</v>
       </c>
       <c r="T5">
-        <v>0.0705959474398314</v>
+        <v>0.09236623743873545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H6">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I6">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J6">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5748966666666666</v>
+        <v>1.086196666666667</v>
       </c>
       <c r="N6">
-        <v>1.72469</v>
+        <v>3.25859</v>
       </c>
       <c r="O6">
-        <v>0.05552139883960665</v>
+        <v>0.1196492319950504</v>
       </c>
       <c r="P6">
-        <v>0.06283020932741304</v>
+        <v>0.1409611062777156</v>
       </c>
       <c r="Q6">
-        <v>22.06983863821</v>
+        <v>17.523264869695</v>
       </c>
       <c r="R6">
-        <v>132.41903182926</v>
+        <v>105.13958921817</v>
       </c>
       <c r="S6">
-        <v>0.02471976711684585</v>
+        <v>0.04250226804391763</v>
       </c>
       <c r="T6">
-        <v>0.02356957302599565</v>
+        <v>0.04390923945012281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H7">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I7">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J7">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.911407000000001</v>
+        <v>0.8603300000000002</v>
       </c>
       <c r="N7">
-        <v>8.734221000000002</v>
+        <v>2.58099</v>
       </c>
       <c r="O7">
-        <v>0.2811729456854671</v>
+        <v>0.09476904774362691</v>
       </c>
       <c r="P7">
-        <v>0.3181864182791614</v>
+        <v>0.111649273364161</v>
       </c>
       <c r="Q7">
-        <v>111.766664212389</v>
+        <v>13.879429874895</v>
       </c>
       <c r="R7">
-        <v>670.5999852743341</v>
+        <v>83.27657924937002</v>
       </c>
       <c r="S7">
-        <v>0.1251865025407839</v>
+        <v>0.03366423170717119</v>
       </c>
       <c r="T7">
-        <v>0.1193616590139009</v>
+        <v>0.03477863368155322</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I8">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J8">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.0305975</v>
+        <v>0.690242</v>
       </c>
       <c r="N8">
-        <v>2.061195</v>
+        <v>1.380484</v>
       </c>
       <c r="O8">
-        <v>0.09953130389913813</v>
+        <v>0.07603312339759918</v>
       </c>
       <c r="P8">
-        <v>0.0750890382124423</v>
+        <v>0.05971740901392503</v>
       </c>
       <c r="Q8">
-        <v>3.251298075075</v>
+        <v>2.17755475434</v>
       </c>
       <c r="R8">
-        <v>19.50778845045</v>
+        <v>13.06532852604</v>
       </c>
       <c r="S8">
-        <v>0.003641681870032096</v>
+        <v>0.005281607995854986</v>
       </c>
       <c r="T8">
-        <v>0.003472236868877018</v>
+        <v>0.005456447404925443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I9">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J9">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.575656</v>
       </c>
       <c r="O9">
-        <v>0.147299991145562</v>
+        <v>0.1680093924898635</v>
       </c>
       <c r="P9">
-        <v>0.1666904917928634</v>
+        <v>0.1979351595954898</v>
       </c>
       <c r="Q9">
         <v>4.811714093040001</v>
@@ -1013,10 +1013,10 @@
         <v>43.30542683736001</v>
       </c>
       <c r="S9">
-        <v>0.005389457248086211</v>
+        <v>0.01167069970429784</v>
       </c>
       <c r="T9">
-        <v>0.007708034156156183</v>
+        <v>0.01808556006953469</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I10">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J10">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.729477333333334</v>
+        <v>1.488848666666667</v>
       </c>
       <c r="N10">
-        <v>5.188432000000001</v>
+        <v>4.466546</v>
       </c>
       <c r="O10">
-        <v>0.1670265395080728</v>
+        <v>0.1640030806485518</v>
       </c>
       <c r="P10">
-        <v>0.189013833582295</v>
+        <v>0.1932152450600737</v>
       </c>
       <c r="Q10">
-        <v>5.456103206880002</v>
+        <v>4.696975108140001</v>
       </c>
       <c r="R10">
-        <v>49.10492886192001</v>
+        <v>42.27277597326</v>
       </c>
       <c r="S10">
-        <v>0.006111218249055968</v>
+        <v>0.01139240298690126</v>
       </c>
       <c r="T10">
-        <v>0.008740301078772909</v>
+        <v>0.01765429612417103</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I11">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J11">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.582909</v>
+        <v>3.427339</v>
       </c>
       <c r="N11">
-        <v>5.165818</v>
+        <v>6.854678</v>
       </c>
       <c r="O11">
-        <v>0.2494478209221534</v>
+        <v>0.3775361237253082</v>
       </c>
       <c r="P11">
-        <v>0.1881900088058249</v>
+        <v>0.296521806688635</v>
       </c>
       <c r="Q11">
-        <v>8.148483825930001</v>
+        <v>10.81246625703</v>
       </c>
       <c r="R11">
-        <v>48.89090295558</v>
+        <v>64.87479754218</v>
       </c>
       <c r="S11">
-        <v>0.009126873369324816</v>
+        <v>0.02622538336830508</v>
       </c>
       <c r="T11">
-        <v>0.008702206107383601</v>
+        <v>0.02709353385095337</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I12">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J12">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5748966666666666</v>
+        <v>1.086196666666667</v>
       </c>
       <c r="N12">
-        <v>1.72469</v>
+        <v>3.25859</v>
       </c>
       <c r="O12">
-        <v>0.05552139883960665</v>
+        <v>0.1196492319950504</v>
       </c>
       <c r="P12">
-        <v>0.06283020932741304</v>
+        <v>0.1409611062777156</v>
       </c>
       <c r="Q12">
-        <v>1.8136667571</v>
+        <v>3.426700658100001</v>
       </c>
       <c r="R12">
-        <v>16.3230008139</v>
+        <v>30.8403059229</v>
       </c>
       <c r="S12">
-        <v>0.002031433967326609</v>
+        <v>0.008311382094595374</v>
       </c>
       <c r="T12">
-        <v>0.002905369072496054</v>
+        <v>0.0128797761866244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I13">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J13">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.911407000000001</v>
+        <v>0.8603300000000002</v>
       </c>
       <c r="N13">
-        <v>8.734221000000002</v>
+        <v>2.58099</v>
       </c>
       <c r="O13">
-        <v>0.2811729456854671</v>
+        <v>0.09476904774362691</v>
       </c>
       <c r="P13">
-        <v>0.3181864182791614</v>
+        <v>0.111649273364161</v>
       </c>
       <c r="Q13">
-        <v>9.184819461390003</v>
+        <v>2.714143274100001</v>
       </c>
       <c r="R13">
-        <v>82.66337515251003</v>
+        <v>24.42728946690001</v>
       </c>
       <c r="S13">
-        <v>0.01028764196321507</v>
+        <v>0.006583090868237403</v>
       </c>
       <c r="T13">
-        <v>0.01471344738228062</v>
+        <v>0.01020152076202152</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H14">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I14">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J14">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.0305975</v>
+        <v>0.690242</v>
       </c>
       <c r="N14">
-        <v>2.061195</v>
+        <v>1.380484</v>
       </c>
       <c r="O14">
-        <v>0.09953130389913813</v>
+        <v>0.07603312339759918</v>
       </c>
       <c r="P14">
-        <v>0.0750890382124423</v>
+        <v>0.05971740901392503</v>
       </c>
       <c r="Q14">
-        <v>3.054115229529999</v>
+        <v>2.149929198774</v>
       </c>
       <c r="R14">
-        <v>18.32469137718</v>
+        <v>12.899575192644</v>
       </c>
       <c r="S14">
-        <v>0.003420823253835855</v>
+        <v>0.005214602858612618</v>
       </c>
       <c r="T14">
-        <v>0.003261654655126702</v>
+        <v>0.005387224166943804</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H15">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I15">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J15">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.575656</v>
       </c>
       <c r="O15">
-        <v>0.147299991145562</v>
+        <v>0.1680093924898635</v>
       </c>
       <c r="P15">
-        <v>0.1666904917928634</v>
+        <v>0.1979351595954898</v>
       </c>
       <c r="Q15">
-        <v>4.519896039171556</v>
+        <v>4.750670266344</v>
       </c>
       <c r="R15">
-        <v>40.679064352544</v>
+        <v>42.75603239709601</v>
       </c>
       <c r="S15">
-        <v>0.005062600561439216</v>
+        <v>0.01152263933404418</v>
       </c>
       <c r="T15">
-        <v>0.007240561757940627</v>
+        <v>0.01785611755212043</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H16">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I16">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J16">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.729477333333334</v>
+        <v>1.488848666666667</v>
       </c>
       <c r="N16">
-        <v>5.188432000000001</v>
+        <v>4.466546</v>
       </c>
       <c r="O16">
-        <v>0.1670265395080728</v>
+        <v>0.1640030806485518</v>
       </c>
       <c r="P16">
-        <v>0.189013833582295</v>
+        <v>0.1932152450600737</v>
       </c>
       <c r="Q16">
-        <v>5.125204614663112</v>
+        <v>4.637386917954</v>
       </c>
       <c r="R16">
-        <v>46.126841531968</v>
+        <v>41.736482261586</v>
       </c>
       <c r="S16">
-        <v>0.005740588618591344</v>
+        <v>0.01124787322886985</v>
       </c>
       <c r="T16">
-        <v>0.008210224353158411</v>
+        <v>0.01743032483822064</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H17">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I17">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J17">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.582909</v>
+        <v>3.427339</v>
       </c>
       <c r="N17">
-        <v>5.165818</v>
+        <v>6.854678</v>
       </c>
       <c r="O17">
-        <v>0.2494478209221534</v>
+        <v>0.3775361237253082</v>
       </c>
       <c r="P17">
-        <v>0.1881900088058249</v>
+        <v>0.296521806688635</v>
       </c>
       <c r="Q17">
-        <v>7.654299290838667</v>
+        <v>10.675293868233</v>
       </c>
       <c r="R17">
-        <v>45.925795745032</v>
+        <v>64.051763209398</v>
       </c>
       <c r="S17">
-        <v>0.008573352030974184</v>
+        <v>0.02589267495579016</v>
       </c>
       <c r="T17">
-        <v>0.008174439743564929</v>
+        <v>0.02674981164447977</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H18">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I18">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J18">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5748966666666666</v>
+        <v>1.086196666666667</v>
       </c>
       <c r="N18">
-        <v>1.72469</v>
+        <v>3.25859</v>
       </c>
       <c r="O18">
-        <v>0.05552139883960665</v>
+        <v>0.1196492319950504</v>
       </c>
       <c r="P18">
-        <v>0.06283020932741304</v>
+        <v>0.1409611062777156</v>
       </c>
       <c r="Q18">
-        <v>1.703672544395555</v>
+        <v>3.38322780891</v>
       </c>
       <c r="R18">
-        <v>15.33305289956</v>
+        <v>30.44905028019</v>
       </c>
       <c r="S18">
-        <v>0.001908232734783515</v>
+        <v>0.008205939718266199</v>
       </c>
       <c r="T18">
-        <v>0.002729165929060798</v>
+        <v>0.01271637686359379</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H19">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I19">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J19">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.911407000000001</v>
+        <v>0.8603300000000002</v>
       </c>
       <c r="N19">
-        <v>8.734221000000002</v>
+        <v>2.58099</v>
       </c>
       <c r="O19">
-        <v>0.2811729456854671</v>
+        <v>0.09476904774362691</v>
       </c>
       <c r="P19">
-        <v>0.3181864182791614</v>
+        <v>0.111649273364161</v>
       </c>
       <c r="Q19">
-        <v>8.627783841956001</v>
+        <v>2.67971028651</v>
       </c>
       <c r="R19">
-        <v>77.65005457760401</v>
+        <v>24.11739257859</v>
       </c>
       <c r="S19">
-        <v>0.009663723002414124</v>
+        <v>0.006499574464246156</v>
       </c>
       <c r="T19">
-        <v>0.01382111473371292</v>
+        <v>0.01007209913526002</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H20">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I20">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J20">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.0305975</v>
+        <v>0.690242</v>
       </c>
       <c r="N20">
-        <v>2.061195</v>
+        <v>1.380484</v>
       </c>
       <c r="O20">
-        <v>0.09953130389913813</v>
+        <v>0.07603312339759918</v>
       </c>
       <c r="P20">
-        <v>0.0750890382124423</v>
+        <v>0.05971740901392503</v>
       </c>
       <c r="Q20">
-        <v>16.08782742621375</v>
+        <v>11.411730261722</v>
       </c>
       <c r="R20">
-        <v>64.351309704855</v>
+        <v>45.646921046888</v>
       </c>
       <c r="S20">
-        <v>0.01801949501812327</v>
+        <v>0.02767888415973232</v>
       </c>
       <c r="T20">
-        <v>0.0114540400458652</v>
+        <v>0.01906343368195578</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H21">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I21">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J21">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.575656</v>
       </c>
       <c r="O21">
-        <v>0.147299991145562</v>
+        <v>0.1680093924898635</v>
       </c>
       <c r="P21">
-        <v>0.1666904917928634</v>
+        <v>0.1979351595954898</v>
       </c>
       <c r="Q21">
-        <v>23.80896004169734</v>
+        <v>25.21635022809867</v>
       </c>
       <c r="R21">
-        <v>142.853760250184</v>
+        <v>151.298101368592</v>
       </c>
       <c r="S21">
-        <v>0.02666770505997601</v>
+        <v>0.06116166618798631</v>
       </c>
       <c r="T21">
-        <v>0.02542687473048567</v>
+        <v>0.06318632791647208</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H22">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I22">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J22">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.729477333333334</v>
+        <v>1.488848666666667</v>
       </c>
       <c r="N22">
-        <v>5.188432000000001</v>
+        <v>4.466546</v>
       </c>
       <c r="O22">
-        <v>0.1670265395080728</v>
+        <v>0.1640030806485518</v>
       </c>
       <c r="P22">
-        <v>0.189013833582295</v>
+        <v>0.1932152450600737</v>
       </c>
       <c r="Q22">
-        <v>26.99747755667467</v>
+        <v>24.61504716392867</v>
       </c>
       <c r="R22">
-        <v>161.984865340048</v>
+        <v>147.690282983572</v>
       </c>
       <c r="S22">
-        <v>0.03023906829965833</v>
+        <v>0.05970321970560844</v>
       </c>
       <c r="T22">
-        <v>0.02883206484745426</v>
+        <v>0.06167960183414285</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H23">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I23">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J23">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.582909</v>
+        <v>3.427339</v>
       </c>
       <c r="N23">
-        <v>5.165818</v>
+        <v>6.854678</v>
       </c>
       <c r="O23">
-        <v>0.2494478209221534</v>
+        <v>0.3775361237253082</v>
       </c>
       <c r="P23">
-        <v>0.1881900088058249</v>
+        <v>0.296521806688635</v>
       </c>
       <c r="Q23">
-        <v>40.31971186580051</v>
+        <v>56.663993473999</v>
       </c>
       <c r="R23">
-        <v>161.278847463202</v>
+        <v>226.655973895996</v>
       </c>
       <c r="S23">
-        <v>0.04516090506503825</v>
+        <v>0.1374371874750201</v>
       </c>
       <c r="T23">
-        <v>0.02870639907512453</v>
+        <v>0.09465788771486033</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H24">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I24">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J24">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5748966666666666</v>
+        <v>1.086196666666667</v>
       </c>
       <c r="N24">
-        <v>1.72469</v>
+        <v>3.25859</v>
       </c>
       <c r="O24">
-        <v>0.05552139883960665</v>
+        <v>0.1196492319950504</v>
       </c>
       <c r="P24">
-        <v>0.06283020932741304</v>
+        <v>0.1409611062777156</v>
       </c>
       <c r="Q24">
-        <v>8.974248784068333</v>
+        <v>17.95802540439667</v>
       </c>
       <c r="R24">
-        <v>53.84549270441</v>
+        <v>107.74815242638</v>
       </c>
       <c r="S24">
-        <v>0.0100517880364892</v>
+        <v>0.04355676952627346</v>
       </c>
       <c r="T24">
-        <v>0.009584085118925311</v>
+        <v>0.04499864856215955</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H25">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I25">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J25">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.911407000000001</v>
+        <v>0.8603300000000002</v>
       </c>
       <c r="N25">
-        <v>8.734221000000002</v>
+        <v>2.58099</v>
       </c>
       <c r="O25">
-        <v>0.2811729456854671</v>
+        <v>0.09476904774362691</v>
       </c>
       <c r="P25">
-        <v>0.3181864182791614</v>
+        <v>0.111649273364161</v>
       </c>
       <c r="Q25">
-        <v>45.44762953866152</v>
+        <v>14.22378513053</v>
       </c>
       <c r="R25">
-        <v>272.6857772319691</v>
+        <v>85.34271078318001</v>
       </c>
       <c r="S25">
-        <v>0.05090453249908837</v>
+        <v>0.03449945730503579</v>
       </c>
       <c r="T25">
-        <v>0.04853597893621751</v>
+        <v>0.03564150812236219</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.952291</v>
+        <v>5.297244</v>
       </c>
       <c r="H26">
-        <v>56.85687299999999</v>
+        <v>15.891732</v>
       </c>
       <c r="I26">
-        <v>0.2198043708894774</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J26">
-        <v>0.2777965298305241</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.0305975</v>
+        <v>0.690242</v>
       </c>
       <c r="N26">
-        <v>2.061195</v>
+        <v>1.380484</v>
       </c>
       <c r="O26">
-        <v>0.09953130389913813</v>
+        <v>0.07603312339759918</v>
       </c>
       <c r="P26">
-        <v>0.0750890382124423</v>
+        <v>0.05971740901392503</v>
       </c>
       <c r="Q26">
-        <v>19.5321837238725</v>
+        <v>3.656380293048</v>
       </c>
       <c r="R26">
-        <v>117.193102343235</v>
+        <v>21.938281758288</v>
       </c>
       <c r="S26">
-        <v>0.02187741563735944</v>
+        <v>0.008868464663476211</v>
       </c>
       <c r="T26">
-        <v>0.02085947424372809</v>
+        <v>0.009162041377677888</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>18.952291</v>
+        <v>5.297244</v>
       </c>
       <c r="H27">
-        <v>56.85687299999999</v>
+        <v>15.891732</v>
       </c>
       <c r="I27">
-        <v>0.2198043708894774</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J27">
-        <v>0.2777965298305241</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.575656</v>
       </c>
       <c r="O27">
-        <v>0.147299991145562</v>
+        <v>0.1680093924898635</v>
       </c>
       <c r="P27">
-        <v>0.1666904917928634</v>
+        <v>0.1979351595954898</v>
       </c>
       <c r="Q27">
-        <v>28.90638800929867</v>
+        <v>8.079455430688</v>
       </c>
       <c r="R27">
-        <v>260.157492083688</v>
+        <v>72.71509887619202</v>
       </c>
       <c r="S27">
-        <v>0.03237718188577584</v>
+        <v>0.019596529694524</v>
       </c>
       <c r="T27">
-        <v>0.0463060401758009</v>
+        <v>0.03036786344645798</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>18.952291</v>
+        <v>5.297244</v>
       </c>
       <c r="H28">
-        <v>56.85687299999999</v>
+        <v>15.891732</v>
       </c>
       <c r="I28">
-        <v>0.2198043708894774</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J28">
-        <v>0.2777965298305241</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.729477333333334</v>
+        <v>1.488848666666667</v>
       </c>
       <c r="N28">
-        <v>5.188432000000001</v>
+        <v>4.466546</v>
       </c>
       <c r="O28">
-        <v>0.1670265395080728</v>
+        <v>0.1640030806485518</v>
       </c>
       <c r="P28">
-        <v>0.189013833582295</v>
+        <v>0.1932152450600737</v>
       </c>
       <c r="Q28">
-        <v>32.77755769923733</v>
+        <v>7.886794666408</v>
       </c>
       <c r="R28">
-        <v>294.998019293136</v>
+        <v>70.981151997672</v>
       </c>
       <c r="S28">
-        <v>0.03671316343841838</v>
+        <v>0.01912923552840454</v>
       </c>
       <c r="T28">
-        <v>0.05250738705912573</v>
+        <v>0.02964371862861262</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>18.952291</v>
+        <v>5.297244</v>
       </c>
       <c r="H29">
-        <v>56.85687299999999</v>
+        <v>15.891732</v>
       </c>
       <c r="I29">
-        <v>0.2198043708894774</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J29">
-        <v>0.2777965298305241</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.582909</v>
+        <v>3.427339</v>
       </c>
       <c r="N29">
-        <v>5.165818</v>
+        <v>6.854678</v>
       </c>
       <c r="O29">
-        <v>0.2494478209221534</v>
+        <v>0.3775361237253082</v>
       </c>
       <c r="P29">
-        <v>0.1881900088058249</v>
+        <v>0.296521806688635</v>
       </c>
       <c r="Q29">
-        <v>48.952042994519</v>
+        <v>18.155450953716</v>
       </c>
       <c r="R29">
-        <v>293.7122579671139</v>
+        <v>108.932705722296</v>
       </c>
       <c r="S29">
-        <v>0.05482972134754495</v>
+        <v>0.04403562056677787</v>
       </c>
       <c r="T29">
-        <v>0.05227853139503394</v>
+        <v>0.04549335122077351</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>18.952291</v>
+        <v>5.297244</v>
       </c>
       <c r="H30">
-        <v>56.85687299999999</v>
+        <v>15.891732</v>
       </c>
       <c r="I30">
-        <v>0.2198043708894774</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J30">
-        <v>0.2777965298305241</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.5748966666666666</v>
+        <v>1.086196666666667</v>
       </c>
       <c r="N30">
-        <v>1.72469</v>
+        <v>3.25859</v>
       </c>
       <c r="O30">
-        <v>0.05552139883960665</v>
+        <v>0.1196492319950504</v>
       </c>
       <c r="P30">
-        <v>0.06283020932741304</v>
+        <v>0.1409611062777156</v>
       </c>
       <c r="Q30">
-        <v>10.89560892159666</v>
+        <v>5.75384877532</v>
       </c>
       <c r="R30">
-        <v>98.06048029436998</v>
+        <v>51.78463897788</v>
       </c>
       <c r="S30">
-        <v>0.0122038461428435</v>
+        <v>0.01395582528434807</v>
       </c>
       <c r="T30">
-        <v>0.01745401411968077</v>
+        <v>0.02162671672608113</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>18.952291</v>
+        <v>5.297244</v>
       </c>
       <c r="H31">
-        <v>56.85687299999999</v>
+        <v>15.891732</v>
       </c>
       <c r="I31">
-        <v>0.2198043708894774</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J31">
-        <v>0.2777965298305241</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.911407000000001</v>
+        <v>0.8603300000000002</v>
       </c>
       <c r="N31">
-        <v>8.734221000000002</v>
+        <v>2.58099</v>
       </c>
       <c r="O31">
-        <v>0.2811729456854671</v>
+        <v>0.09476904774362691</v>
       </c>
       <c r="P31">
-        <v>0.3181864182791614</v>
+        <v>0.111649273364161</v>
       </c>
       <c r="Q31">
-        <v>55.177832683437</v>
+        <v>4.557377930520001</v>
       </c>
       <c r="R31">
-        <v>496.600494150933</v>
+        <v>41.01640137468001</v>
       </c>
       <c r="S31">
-        <v>0.06180304243753528</v>
+        <v>0.01105381330595427</v>
       </c>
       <c r="T31">
-        <v>0.08839108283715469</v>
+        <v>0.01712959887646134</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.153525333333334</v>
+        <v>1.183144666666667</v>
       </c>
       <c r="H32">
-        <v>21.460576</v>
+        <v>3.549434</v>
       </c>
       <c r="I32">
-        <v>0.08296496373632467</v>
+        <v>0.02605154480037626</v>
       </c>
       <c r="J32">
-        <v>0.1048540524021472</v>
+        <v>0.03426724304800335</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.0305975</v>
+        <v>0.690242</v>
       </c>
       <c r="N32">
-        <v>2.061195</v>
+        <v>1.380484</v>
       </c>
       <c r="O32">
-        <v>0.09953130389913813</v>
+        <v>0.07603312339759918</v>
       </c>
       <c r="P32">
-        <v>0.0750890382124423</v>
+        <v>0.05971740901392503</v>
       </c>
       <c r="Q32">
-        <v>7.372405324719999</v>
+        <v>0.8166561410093334</v>
       </c>
       <c r="R32">
-        <v>44.23443194831999</v>
+        <v>4.899936846056001</v>
       </c>
       <c r="S32">
-        <v>0.008257611018621104</v>
+        <v>0.001980780320505092</v>
       </c>
       <c r="T32">
-        <v>0.00787338994755426</v>
+        <v>0.002046350968877196</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.153525333333334</v>
+        <v>1.183144666666667</v>
       </c>
       <c r="H33">
-        <v>21.460576</v>
+        <v>3.549434</v>
       </c>
       <c r="I33">
-        <v>0.08296496373632467</v>
+        <v>0.02605154480037626</v>
       </c>
       <c r="J33">
-        <v>0.1048540524021472</v>
+        <v>0.03426724304800335</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.575656</v>
       </c>
       <c r="O33">
-        <v>0.147299991145562</v>
+        <v>0.1680093924898635</v>
       </c>
       <c r="P33">
-        <v>0.1666904917928634</v>
+        <v>0.1979351595954898</v>
       </c>
       <c r="Q33">
-        <v>10.91069037087289</v>
+        <v>1.804554330967111</v>
       </c>
       <c r="R33">
-        <v>98.19621333785601</v>
+        <v>16.240988978704</v>
       </c>
       <c r="S33">
-        <v>0.01222073842375249</v>
+        <v>0.004376904215333678</v>
       </c>
       <c r="T33">
-        <v>0.01747817356138859</v>
+        <v>0.006782692221603983</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.153525333333334</v>
+        <v>1.183144666666667</v>
       </c>
       <c r="H34">
-        <v>21.460576</v>
+        <v>3.549434</v>
       </c>
       <c r="I34">
-        <v>0.08296496373632467</v>
+        <v>0.02605154480037626</v>
       </c>
       <c r="J34">
-        <v>0.1048540524021472</v>
+        <v>0.03426724304800335</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.729477333333334</v>
+        <v>1.488848666666667</v>
       </c>
       <c r="N34">
-        <v>5.188432000000001</v>
+        <v>4.466546</v>
       </c>
       <c r="O34">
-        <v>0.1670265395080728</v>
+        <v>0.1640030806485518</v>
       </c>
       <c r="P34">
-        <v>0.189013833582295</v>
+        <v>0.1932152450600737</v>
       </c>
       <c r="Q34">
-        <v>12.37185991742578</v>
+        <v>1.761523359440445</v>
       </c>
       <c r="R34">
-        <v>111.346739256832</v>
+        <v>15.853710234964</v>
       </c>
       <c r="S34">
-        <v>0.01385735079329106</v>
+        <v>0.004272533602915468</v>
       </c>
       <c r="T34">
-        <v>0.01981886641116869</v>
+        <v>0.006620953763053076</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.153525333333334</v>
+        <v>1.183144666666667</v>
       </c>
       <c r="H35">
-        <v>21.460576</v>
+        <v>3.549434</v>
       </c>
       <c r="I35">
-        <v>0.08296496373632467</v>
+        <v>0.02605154480037626</v>
       </c>
       <c r="J35">
-        <v>0.1048540524021472</v>
+        <v>0.03426724304800335</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.582909</v>
+        <v>3.427339</v>
       </c>
       <c r="N35">
-        <v>5.165818</v>
+        <v>6.854678</v>
       </c>
       <c r="O35">
-        <v>0.2494478209221534</v>
+        <v>0.3775361237253082</v>
       </c>
       <c r="P35">
-        <v>0.1881900088058249</v>
+        <v>0.296521806688635</v>
       </c>
       <c r="Q35">
-        <v>18.47690496519467</v>
+        <v>4.055037858708666</v>
       </c>
       <c r="R35">
-        <v>110.861429791168</v>
+        <v>24.330227152252</v>
       </c>
       <c r="S35">
-        <v>0.02069542941691167</v>
+        <v>0.009835399240990262</v>
       </c>
       <c r="T35">
-        <v>0.01973248504488652</v>
+        <v>0.01016098481883252</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.153525333333334</v>
+        <v>1.183144666666667</v>
       </c>
       <c r="H36">
-        <v>21.460576</v>
+        <v>3.549434</v>
       </c>
       <c r="I36">
-        <v>0.08296496373632467</v>
+        <v>0.02605154480037626</v>
       </c>
       <c r="J36">
-        <v>0.1048540524021472</v>
+        <v>0.03426724304800335</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.5748966666666666</v>
+        <v>1.086196666666667</v>
       </c>
       <c r="N36">
-        <v>1.72469</v>
+        <v>3.25859</v>
       </c>
       <c r="O36">
-        <v>0.05552139883960665</v>
+        <v>0.1196492319950504</v>
       </c>
       <c r="P36">
-        <v>0.06283020932741304</v>
+        <v>0.1409611062777156</v>
       </c>
       <c r="Q36">
-        <v>4.112537869048889</v>
+        <v>1.285127793117778</v>
       </c>
       <c r="R36">
-        <v>37.01284082143999</v>
+        <v>11.56615013806</v>
       </c>
       <c r="S36">
-        <v>0.004606330841317985</v>
+        <v>0.003117047327649669</v>
       </c>
       <c r="T36">
-        <v>0.006588002061254447</v>
+        <v>0.004830348489133912</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.153525333333334</v>
+        <v>1.183144666666667</v>
       </c>
       <c r="H37">
-        <v>21.460576</v>
+        <v>3.549434</v>
       </c>
       <c r="I37">
-        <v>0.08296496373632467</v>
+        <v>0.02605154480037626</v>
       </c>
       <c r="J37">
-        <v>0.1048540524021472</v>
+        <v>0.03426724304800335</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.911407000000001</v>
+        <v>0.8603300000000002</v>
       </c>
       <c r="N37">
-        <v>8.734221000000002</v>
+        <v>2.58099</v>
       </c>
       <c r="O37">
-        <v>0.2811729456854671</v>
+        <v>0.09476904774362691</v>
       </c>
       <c r="P37">
-        <v>0.3181864182791614</v>
+        <v>0.111649273364161</v>
       </c>
       <c r="Q37">
-        <v>20.826823730144</v>
+        <v>1.017894851073334</v>
       </c>
       <c r="R37">
-        <v>187.441413571296</v>
+        <v>9.161053659660002</v>
       </c>
       <c r="S37">
-        <v>0.02332750324243036</v>
+        <v>0.002468880092982093</v>
       </c>
       <c r="T37">
-        <v>0.03336313537589473</v>
+        <v>0.003825912786502671</v>
       </c>
     </row>
   </sheetData>
